--- a/DOM_Banner/output/dept_banner/Venkata Rokkam_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Venkata Rokkam_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,199 +360,109 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Venkata Ram Pradeep Rokkam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225514481</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Hesitancy of Covid-19 Vaccination among Teenagers and Young Adults</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5025696852", au_display_name = "Venkata Ram Pradeep Rokkam", au_orcid = NA, author_position = "first", au_affiliation_raw = "", institution_id = NA, institution_display_name = NA, institution_ror = NA, institution_country_code = NA, institution_type = NA, institution_lineage = NA)</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coronavirus disease (COVID-19) is an infectious disease caused by the SARS-CoV-2 virus. It is a global pandemic and has led to serious illness and death among all ages and even in younger adults who are otherwise healthy. The best way to prevent and slow down the transmission of this deadly disease is to get vaccinated. As per the CDC teenagers and young adults between the ages of 12 to 24 have the lowest vaccination rate among those eligible to receive a COVID vaccine. We did a survey-based study among high school and college students to find out the reasons for the reluctance of Covid 19 vaccination.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -562,142 +472,52 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>https://doi.org/10.53902/sojmccr.2022.02.000510</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.53902/sojmccr.2022.02.000510</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.53902/sojmccr.2022.02.000510</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4225514481</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4225514481", doi = "https://doi.org/10.53902/sojmccr.2022.02.000510")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.53902/sojmccr.2022.02.000510</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3009669391", "https://openalex.org/W4206669628", "https://openalex.org/W3113664224", "https://openalex.org/W4205317059", "https://openalex.org/W3005417802", "https://openalex.org/W3084498529", "https://openalex.org/W3022409537", "https://openalex.org/W4226296940")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Venkata Rokkam_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Venkata Rokkam_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -445,77 +450,77 @@
           <t>Venkata Ram Pradeep Rokkam</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://openalex.org/W4225514481</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Hesitancy of Covid-19 Vaccination among Teenagers and Young Adults</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.53902/sojmccr.2022.02.000510</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.53902/sojmccr.2022.02.000510</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
